--- a/src/main/resources/excel/5 Present Sentence.xlsx
+++ b/src/main/resources/excel/5 Present Sentence.xlsx
@@ -1302,7 +1302,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1594,7 +1594,8 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="60.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="47.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="47.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,7 +1605,7 @@
       <c r="B1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>288</v>
       </c>
     </row>
@@ -1615,7 +1616,7 @@
       <c r="B2" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>291</v>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       <c r="B3" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>294</v>
       </c>
     </row>
@@ -1637,7 +1638,7 @@
       <c r="B4" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>297</v>
       </c>
     </row>
@@ -1648,7 +1649,7 @@
       <c r="B5" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>300</v>
       </c>
     </row>
@@ -1659,7 +1660,7 @@
       <c r="B6" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>303</v>
       </c>
     </row>
@@ -1670,7 +1671,7 @@
       <c r="B7" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>306</v>
       </c>
     </row>
@@ -1681,7 +1682,7 @@
       <c r="B8" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>309</v>
       </c>
     </row>
@@ -1692,7 +1693,7 @@
       <c r="B9" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>312</v>
       </c>
     </row>
@@ -1703,7 +1704,7 @@
       <c r="B10" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -1714,7 +1715,7 @@
       <c r="B11" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>318</v>
       </c>
     </row>
@@ -1725,7 +1726,7 @@
       <c r="B12" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>321</v>
       </c>
     </row>
@@ -1736,7 +1737,7 @@
       <c r="B13" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>324</v>
       </c>
     </row>
@@ -1747,7 +1748,7 @@
       <c r="B14" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>327</v>
       </c>
     </row>
@@ -1758,7 +1759,7 @@
       <c r="B15" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>330</v>
       </c>
     </row>
@@ -2003,7 +2004,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="46.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="60.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="41.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2013,7 +2014,7 @@
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2024,7 +2025,7 @@
       <c r="B2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2035,7 +2036,7 @@
       <c r="B3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2057,7 +2058,7 @@
       <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2068,7 +2069,7 @@
       <c r="B6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2079,7 +2080,7 @@
       <c r="B7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2090,7 +2091,7 @@
       <c r="B8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2101,7 +2102,7 @@
       <c r="B9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2112,7 +2113,7 @@
       <c r="B10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2123,7 +2124,7 @@
       <c r="B11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2134,7 +2135,7 @@
       <c r="B12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2145,7 +2146,7 @@
       <c r="B13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2156,7 +2157,7 @@
       <c r="B14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2167,7 +2168,7 @@
       <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2196,9 +2197,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="59.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="59.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="50.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="42.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2208,7 +2209,7 @@
       <c r="B1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2219,7 +2220,7 @@
       <c r="B2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2230,7 +2231,7 @@
       <c r="B3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2241,7 +2242,7 @@
       <c r="B4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2252,7 +2253,7 @@
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2283,7 +2284,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="60.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="67.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="50.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2293,7 +2294,7 @@
       <c r="B1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2304,7 +2305,7 @@
       <c r="B2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2315,7 +2316,7 @@
       <c r="B3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2326,7 +2327,7 @@
       <c r="B4" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2337,7 +2338,7 @@
       <c r="B5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2348,7 +2349,7 @@
       <c r="B6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2359,7 +2360,7 @@
       <c r="B7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2370,7 +2371,7 @@
       <c r="B8" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2381,7 +2382,7 @@
       <c r="B9" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2392,7 +2393,7 @@
       <c r="B10" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2403,7 +2404,7 @@
       <c r="B11" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2414,7 +2415,7 @@
       <c r="B12" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2425,7 +2426,7 @@
       <c r="B13" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       <c r="B14" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2447,7 +2448,7 @@
       <c r="B15" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2478,7 +2479,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="68.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="43.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2488,7 +2489,7 @@
       <c r="B1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2499,7 +2500,7 @@
       <c r="B2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2510,7 +2511,7 @@
       <c r="B3" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2521,7 +2522,7 @@
       <c r="B4" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2532,7 +2533,7 @@
       <c r="B5" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2543,7 +2544,7 @@
       <c r="B6" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2554,7 +2555,7 @@
       <c r="B7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2565,7 +2566,7 @@
       <c r="B8" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2576,7 +2577,7 @@
       <c r="B9" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2587,7 +2588,7 @@
       <c r="B10" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2598,7 +2599,7 @@
       <c r="B11" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2609,7 +2610,7 @@
       <c r="B12" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2620,7 +2621,7 @@
       <c r="B13" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2631,7 +2632,7 @@
       <c r="B14" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2662,7 +2663,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="57.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="69.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="47.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="47.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2672,7 +2673,7 @@
       <c r="B1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2683,7 +2684,7 @@
       <c r="B2" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2694,7 +2695,7 @@
       <c r="B3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2705,7 +2706,7 @@
       <c r="B4" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2716,7 +2717,7 @@
       <c r="B5" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2727,7 +2728,7 @@
       <c r="B6" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2738,7 +2739,7 @@
       <c r="B7" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2749,7 +2750,7 @@
       <c r="B8" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2760,7 +2761,7 @@
       <c r="B9" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2771,7 +2772,7 @@
       <c r="B10" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2782,7 +2783,7 @@
       <c r="B11" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2793,7 +2794,7 @@
       <c r="B12" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2804,7 +2805,7 @@
       <c r="B13" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2815,7 +2816,7 @@
       <c r="B14" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       <c r="B15" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>243</v>
       </c>
     </row>
@@ -2857,7 +2858,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="61.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="46.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2867,7 +2868,7 @@
       <c r="B1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>246</v>
       </c>
     </row>
@@ -2878,7 +2879,7 @@
       <c r="B2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>249</v>
       </c>
     </row>
@@ -2889,7 +2890,7 @@
       <c r="B3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>252</v>
       </c>
     </row>
@@ -2900,7 +2901,7 @@
       <c r="B4" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>255</v>
       </c>
     </row>
@@ -2911,7 +2912,7 @@
       <c r="B5" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>258</v>
       </c>
     </row>
@@ -2922,7 +2923,7 @@
       <c r="B6" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>261</v>
       </c>
     </row>
@@ -2933,7 +2934,7 @@
       <c r="B7" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>264</v>
       </c>
     </row>
@@ -2944,7 +2945,7 @@
       <c r="B8" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>267</v>
       </c>
     </row>
@@ -2955,7 +2956,7 @@
       <c r="B9" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2966,7 +2967,7 @@
       <c r="B10" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>273</v>
       </c>
     </row>
@@ -2977,7 +2978,7 @@
       <c r="B11" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>276</v>
       </c>
     </row>
@@ -2988,7 +2989,7 @@
       <c r="B12" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>279</v>
       </c>
     </row>
@@ -2999,7 +3000,7 @@
       <c r="B13" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>282</v>
       </c>
     </row>
@@ -3010,7 +3011,7 @@
       <c r="B14" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>285</v>
       </c>
     </row>
